--- a/src/main/resources/CompanyNames.xlsx
+++ b/src/main/resources/CompanyNames.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="203">
   <si>
     <t>A</t>
   </si>
@@ -43,583 +43,589 @@
     <t>GAIL</t>
   </si>
   <si>
-    <t>TATAMOTORS</t>
+    <t>ZEEL</t>
+  </si>
+  <si>
+    <t>INFRATEL</t>
+  </si>
+  <si>
+    <t>INDUSINDBK</t>
+  </si>
+  <si>
+    <t>TATASTEEL</t>
+  </si>
+  <si>
+    <t>JSWSTEEL</t>
+  </si>
+  <si>
+    <t>VEDL</t>
+  </si>
+  <si>
+    <t>BAJAJFINSV</t>
+  </si>
+  <si>
+    <t>HINDALCO</t>
+  </si>
+  <si>
+    <t>TECHM</t>
+  </si>
+  <si>
+    <t>ONGC</t>
+  </si>
+  <si>
+    <t>308.70</t>
+  </si>
+  <si>
+    <t>202.65</t>
+  </si>
+  <si>
+    <t>1,379.00</t>
+  </si>
+  <si>
+    <t>396.45</t>
+  </si>
+  <si>
+    <t>236.80</t>
+  </si>
+  <si>
+    <t>154.00</t>
+  </si>
+  <si>
+    <t>8,394.85</t>
+  </si>
+  <si>
+    <t>193.80</t>
+  </si>
+  <si>
+    <t>758.25</t>
+  </si>
+  <si>
+    <t>144.60</t>
+  </si>
+  <si>
+    <t>18.46</t>
+  </si>
+  <si>
+    <t>6.83</t>
+  </si>
+  <si>
+    <t>5.01</t>
+  </si>
+  <si>
+    <t>4.18</t>
+  </si>
+  <si>
+    <t>3.86</t>
+  </si>
+  <si>
+    <t>3.81</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>3.14</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>6,17,98,777</t>
+  </si>
+  <si>
+    <t>2,34,57,512</t>
+  </si>
+  <si>
+    <t>78,03,620</t>
+  </si>
+  <si>
+    <t>2,41,11,195</t>
+  </si>
+  <si>
+    <t>92,08,037</t>
+  </si>
+  <si>
+    <t>2,13,10,225</t>
+  </si>
+  <si>
+    <t>6,56,439</t>
+  </si>
+  <si>
+    <t>69,21,052</t>
+  </si>
+  <si>
+    <t>41,36,257</t>
+  </si>
+  <si>
+    <t>80,49,866</t>
+  </si>
+  <si>
+    <t>1,80,526.59</t>
+  </si>
+  <si>
+    <t>46,933.79</t>
+  </si>
+  <si>
+    <t>1,06,426.55</t>
+  </si>
+  <si>
+    <t>94,214.49</t>
+  </si>
+  <si>
+    <t>21,591.01</t>
+  </si>
+  <si>
+    <t>32,050.58</t>
+  </si>
+  <si>
+    <t>54,796.05</t>
+  </si>
+  <si>
+    <t>13,268.35</t>
+  </si>
+  <si>
+    <t>31,199.37</t>
+  </si>
+  <si>
+    <t>11,487.96</t>
+  </si>
+  <si>
+    <t>261.75</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>1,328.00</t>
+  </si>
+  <si>
+    <t>380.05</t>
+  </si>
+  <si>
+    <t>227.70</t>
+  </si>
+  <si>
+    <t>148.45</t>
+  </si>
+  <si>
+    <t>8,168.00</t>
+  </si>
+  <si>
+    <t>188.05</t>
+  </si>
+  <si>
+    <t>740.90</t>
+  </si>
+  <si>
+    <t>140.55</t>
+  </si>
+  <si>
+    <t>314.50</t>
+  </si>
+  <si>
+    <t>204.30</t>
+  </si>
+  <si>
+    <t>1,385.85</t>
+  </si>
+  <si>
+    <t>402.90</t>
+  </si>
+  <si>
+    <t>239.50</t>
+  </si>
+  <si>
+    <t>155.00</t>
+  </si>
+  <si>
+    <t>8,429.00</t>
+  </si>
+  <si>
+    <t>194.35</t>
+  </si>
+  <si>
+    <t>764.00</t>
+  </si>
+  <si>
+    <t>144.75</t>
+  </si>
+  <si>
+    <t>261.05</t>
+  </si>
+  <si>
+    <t>189.70</t>
+  </si>
+  <si>
+    <t>1,316.20</t>
+  </si>
+  <si>
+    <t>378.00</t>
+  </si>
+  <si>
+    <t>227.50</t>
+  </si>
+  <si>
+    <t>146.70</t>
+  </si>
+  <si>
+    <t>8,110.50</t>
+  </si>
+  <si>
+    <t>187.35</t>
+  </si>
+  <si>
+    <t>740.00</t>
+  </si>
+  <si>
+    <t>140.10</t>
+  </si>
+  <si>
+    <t>260.60</t>
+  </si>
+  <si>
+    <t>1,313.20</t>
+  </si>
+  <si>
+    <t>380.55</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>148.35</t>
+  </si>
+  <si>
+    <t>8,134.35</t>
+  </si>
+  <si>
+    <t>187.90</t>
+  </si>
+  <si>
+    <t>739.00</t>
+  </si>
+  <si>
+    <t>141.70</t>
+  </si>
+  <si>
+    <t>15-Jul-2019</t>
+  </si>
+  <si>
+    <t>22-Aug-2019</t>
+  </si>
+  <si>
+    <t>08-Aug-2019</t>
+  </si>
+  <si>
+    <t>04-Jul-2019</t>
+  </si>
+  <si>
+    <t>08-Jul-2019</t>
+  </si>
+  <si>
+    <t>11-Jul-2019</t>
+  </si>
+  <si>
+    <t>14-Aug-2019</t>
+  </si>
+  <si>
+    <t>25-Jul-2019</t>
+  </si>
+  <si>
+    <t>https://www.nseindia.com/live_market/resources/images/note_ico.gif</t>
   </si>
   <si>
     <t>YESBANK</t>
   </si>
   <si>
+    <t>IOC</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
     <t>M&amp;M</t>
   </si>
   <si>
-    <t>VEDL</t>
-  </si>
-  <si>
-    <t>INFY</t>
-  </si>
-  <si>
-    <t>TECHM</t>
-  </si>
-  <si>
-    <t>ITC</t>
-  </si>
-  <si>
-    <t>JSWSTEEL</t>
-  </si>
-  <si>
-    <t>BPCL</t>
-  </si>
-  <si>
-    <t>TATASTEEL</t>
-  </si>
-  <si>
-    <t>149.50</t>
-  </si>
-  <si>
-    <t>54.95</t>
-  </si>
-  <si>
-    <t>589.50</t>
-  </si>
-  <si>
-    <t>145.10</t>
-  </si>
-  <si>
-    <t>649.95</t>
-  </si>
-  <si>
-    <t>735.00</t>
-  </si>
-  <si>
-    <t>250.60</t>
-  </si>
-  <si>
-    <t>219.45</t>
-  </si>
-  <si>
-    <t>529.00</t>
-  </si>
-  <si>
-    <t>365.55</t>
-  </si>
-  <si>
-    <t>17.86</t>
-  </si>
-  <si>
-    <t>5.37</t>
-  </si>
-  <si>
-    <t>2.04</t>
-  </si>
-  <si>
-    <t>1.96</t>
-  </si>
-  <si>
-    <t>1.95</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>3,94,90,461</t>
-  </si>
-  <si>
-    <t>7,49,92,659</t>
-  </si>
-  <si>
-    <t>8,52,012</t>
-  </si>
-  <si>
-    <t>17,65,530</t>
-  </si>
-  <si>
-    <t>29,45,433</t>
-  </si>
-  <si>
-    <t>1,94,215</t>
-  </si>
-  <si>
-    <t>31,32,126</t>
-  </si>
-  <si>
-    <t>7,56,987</t>
-  </si>
-  <si>
-    <t>10,38,183</t>
-  </si>
-  <si>
-    <t>10,82,016</t>
-  </si>
-  <si>
-    <t>58,331.36</t>
-  </si>
-  <si>
-    <t>41,305.96</t>
-  </si>
-  <si>
-    <t>5,020.74</t>
-  </si>
-  <si>
-    <t>2,549.07</t>
-  </si>
-  <si>
-    <t>19,099.07</t>
-  </si>
-  <si>
-    <t>1,410.16</t>
-  </si>
-  <si>
-    <t>7,840.02</t>
-  </si>
-  <si>
-    <t>1,660.30</t>
-  </si>
-  <si>
-    <t>5,464.37</t>
-  </si>
-  <si>
-    <t>3,947.19</t>
-  </si>
-  <si>
-    <t>139.50</t>
-  </si>
-  <si>
-    <t>55.20</t>
-  </si>
-  <si>
-    <t>584.45</t>
-  </si>
-  <si>
-    <t>144.10</t>
-  </si>
-  <si>
-    <t>651.10</t>
-  </si>
-  <si>
-    <t>723.00</t>
-  </si>
-  <si>
-    <t>249.95</t>
-  </si>
-  <si>
-    <t>218.00</t>
-  </si>
-  <si>
-    <t>528.90</t>
-  </si>
-  <si>
-    <t>363.80</t>
-  </si>
-  <si>
-    <t>150.70</t>
-  </si>
-  <si>
-    <t>56.45</t>
-  </si>
-  <si>
-    <t>595.00</t>
-  </si>
-  <si>
-    <t>145.15</t>
-  </si>
-  <si>
-    <t>652.50</t>
-  </si>
-  <si>
-    <t>737.40</t>
-  </si>
-  <si>
-    <t>251.10</t>
-  </si>
-  <si>
-    <t>221.40</t>
-  </si>
-  <si>
-    <t>54.15</t>
-  </si>
-  <si>
-    <t>580.00</t>
-  </si>
-  <si>
-    <t>143.35</t>
-  </si>
-  <si>
-    <t>645.55</t>
-  </si>
-  <si>
-    <t>718.50</t>
-  </si>
-  <si>
-    <t>249.70</t>
-  </si>
-  <si>
-    <t>521.00</t>
-  </si>
-  <si>
-    <t>363.10</t>
-  </si>
-  <si>
-    <t>126.85</t>
-  </si>
-  <si>
-    <t>52.15</t>
-  </si>
-  <si>
-    <t>577.70</t>
-  </si>
-  <si>
-    <t>142.20</t>
-  </si>
-  <si>
-    <t>637.45</t>
-  </si>
-  <si>
-    <t>720.95</t>
-  </si>
-  <si>
-    <t>247.70</t>
-  </si>
-  <si>
-    <t>217.35</t>
-  </si>
-  <si>
-    <t>524.15</t>
-  </si>
-  <si>
-    <t>362.25</t>
-  </si>
-  <si>
-    <t>18-Jul-2016</t>
+    <t>EICHERMOT</t>
+  </si>
+  <si>
+    <t>ASIANPAINT</t>
+  </si>
+  <si>
+    <t>TITAN</t>
+  </si>
+  <si>
+    <t>ADANIPORTS</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>66.10</t>
+  </si>
+  <si>
+    <t>142.65</t>
+  </si>
+  <si>
+    <t>2,207.00</t>
+  </si>
+  <si>
+    <t>590.00</t>
+  </si>
+  <si>
+    <t>22,000.00</t>
+  </si>
+  <si>
+    <t>1,770.00</t>
+  </si>
+  <si>
+    <t>1,303.00</t>
+  </si>
+  <si>
+    <t>388.30</t>
+  </si>
+  <si>
+    <t>134.85</t>
+  </si>
+  <si>
+    <t>1,449.40</t>
+  </si>
+  <si>
+    <t>-6.11</t>
+  </si>
+  <si>
+    <t>-2.83</t>
+  </si>
+  <si>
+    <t>-2.76</t>
+  </si>
+  <si>
+    <t>-2.71</t>
+  </si>
+  <si>
+    <t>-2.39</t>
+  </si>
+  <si>
+    <t>-2.19</t>
+  </si>
+  <si>
+    <t>-2.12</t>
+  </si>
+  <si>
+    <t>-1.89</t>
+  </si>
+  <si>
+    <t>-1.82</t>
+  </si>
+  <si>
+    <t>-1.61</t>
+  </si>
+  <si>
+    <t>43,15,74,597</t>
+  </si>
+  <si>
+    <t>1,82,91,841</t>
+  </si>
+  <si>
+    <t>41,72,620</t>
+  </si>
+  <si>
+    <t>75,58,094</t>
+  </si>
+  <si>
+    <t>1,87,025</t>
+  </si>
+  <si>
+    <t>15,27,660</t>
+  </si>
+  <si>
+    <t>24,91,686</t>
+  </si>
+  <si>
+    <t>36,65,336</t>
+  </si>
+  <si>
+    <t>64,01,816</t>
+  </si>
+  <si>
+    <t>22,87,220</t>
+  </si>
+  <si>
+    <t>2,94,549.66</t>
+  </si>
+  <si>
+    <t>26,021.97</t>
+  </si>
+  <si>
+    <t>92,588.77</t>
+  </si>
+  <si>
+    <t>44,743.16</t>
+  </si>
+  <si>
+    <t>41,899.94</t>
+  </si>
+  <si>
+    <t>27,167.91</t>
+  </si>
+  <si>
+    <t>32,547.90</t>
+  </si>
+  <si>
+    <t>14,352.36</t>
+  </si>
+  <si>
+    <t>8,750.64</t>
+  </si>
+  <si>
+    <t>33,448.99</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>2,264.00</t>
+  </si>
+  <si>
+    <t>609.00</t>
+  </si>
+  <si>
+    <t>22,587.00</t>
+  </si>
+  <si>
+    <t>1,816.00</t>
+  </si>
+  <si>
+    <t>1,331.80</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>1,476.70</t>
+  </si>
+  <si>
+    <t>71.85</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>2,275.00</t>
+  </si>
+  <si>
+    <t>609.75</t>
+  </si>
+  <si>
+    <t>22,888.00</t>
+  </si>
+  <si>
+    <t>1,821.00</t>
+  </si>
+  <si>
+    <t>1,333.35</t>
+  </si>
+  <si>
+    <t>397.25</t>
+  </si>
+  <si>
+    <t>138.70</t>
+  </si>
+  <si>
+    <t>1,481.05</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>140.25</t>
+  </si>
+  <si>
+    <t>2,195.00</t>
+  </si>
+  <si>
+    <t>581.00</t>
+  </si>
+  <si>
+    <t>21,900.05</t>
+  </si>
+  <si>
+    <t>1,762.00</t>
+  </si>
+  <si>
+    <t>1,287.05</t>
+  </si>
+  <si>
+    <t>387.85</t>
+  </si>
+  <si>
+    <t>134.70</t>
+  </si>
+  <si>
+    <t>1,445.00</t>
+  </si>
+  <si>
+    <t>70.40</t>
+  </si>
+  <si>
+    <t>146.80</t>
+  </si>
+  <si>
+    <t>2,269.65</t>
+  </si>
+  <si>
+    <t>606.45</t>
+  </si>
+  <si>
+    <t>22,538.10</t>
+  </si>
+  <si>
+    <t>1,809.60</t>
+  </si>
+  <si>
+    <t>1,331.20</t>
+  </si>
+  <si>
+    <t>395.80</t>
+  </si>
+  <si>
+    <t>137.35</t>
+  </si>
+  <si>
+    <t>1,473.05</t>
   </si>
   <si>
     <t>03-Jun-2019</t>
   </si>
   <si>
+    <t>21-Aug-2019</t>
+  </si>
+  <si>
+    <t>17-Oct-2019</t>
+  </si>
+  <si>
     <t>18-Jul-2019</t>
   </si>
   <si>
-    <t>04-Jul-2019</t>
-  </si>
-  <si>
-    <t>23-Oct-2019</t>
-  </si>
-  <si>
-    <t>25-Jul-2019</t>
-  </si>
-  <si>
-    <t>22-May-2019</t>
-  </si>
-  <si>
-    <t>08-Jul-2019</t>
-  </si>
-  <si>
-    <t>21-Aug-2019</t>
-  </si>
-  <si>
-    <t>https://www.nseindia.com/live_market/resources/images/note_ico.gif</t>
-  </si>
-  <si>
-    <t>INFRATEL</t>
-  </si>
-  <si>
-    <t>COALINDIA</t>
-  </si>
-  <si>
-    <t>TITAN</t>
-  </si>
-  <si>
-    <t>GRASIM</t>
-  </si>
-  <si>
-    <t>ZEEL</t>
-  </si>
-  <si>
-    <t>MARUTI</t>
-  </si>
-  <si>
-    <t>BHARTIARTL</t>
-  </si>
-  <si>
-    <t>DRREDDY</t>
-  </si>
-  <si>
-    <t>ULTRACEMCO</t>
-  </si>
-  <si>
-    <t>TCS</t>
-  </si>
-  <si>
-    <t>212.20</t>
-  </si>
-  <si>
-    <t>203.00</t>
-  </si>
-  <si>
-    <t>1,319.50</t>
-  </si>
-  <si>
-    <t>703.10</t>
-  </si>
-  <si>
-    <t>237.50</t>
-  </si>
-  <si>
-    <t>7,412.00</t>
-  </si>
-  <si>
-    <t>372.50</t>
-  </si>
-  <si>
-    <t>2,782.00</t>
-  </si>
-  <si>
-    <t>4,181.00</t>
-  </si>
-  <si>
-    <t>2,117.65</t>
-  </si>
-  <si>
-    <t>-2.21</t>
-  </si>
-  <si>
-    <t>-1.38</t>
-  </si>
-  <si>
-    <t>-1.16</t>
-  </si>
-  <si>
-    <t>-0.96</t>
-  </si>
-  <si>
-    <t>-0.92</t>
-  </si>
-  <si>
-    <t>-0.79</t>
-  </si>
-  <si>
-    <t>-0.71</t>
-  </si>
-  <si>
-    <t>-0.46</t>
-  </si>
-  <si>
-    <t>-0.37</t>
-  </si>
-  <si>
-    <t>-0.34</t>
-  </si>
-  <si>
-    <t>8,52,389</t>
-  </si>
-  <si>
-    <t>7,55,888</t>
-  </si>
-  <si>
-    <t>4,70,394</t>
-  </si>
-  <si>
-    <t>5,88,272</t>
-  </si>
-  <si>
-    <t>8,67,680</t>
-  </si>
-  <si>
-    <t>1,28,352</t>
-  </si>
-  <si>
-    <t>19,95,673</t>
-  </si>
-  <si>
-    <t>22,603</t>
-  </si>
-  <si>
-    <t>56,626</t>
-  </si>
-  <si>
-    <t>2,24,421</t>
-  </si>
-  <si>
-    <t>1,819.51</t>
-  </si>
-  <si>
-    <t>1,543.60</t>
-  </si>
-  <si>
-    <t>6,236.20</t>
-  </si>
-  <si>
-    <t>4,122.43</t>
-  </si>
-  <si>
-    <t>2,076.71</t>
-  </si>
-  <si>
-    <t>9,555.68</t>
-  </si>
-  <si>
-    <t>7,399.76</t>
-  </si>
-  <si>
-    <t>629.49</t>
-  </si>
-  <si>
-    <t>2,381.37</t>
-  </si>
-  <si>
-    <t>4,751.28</t>
-  </si>
-  <si>
-    <t>214.00</t>
-  </si>
-  <si>
-    <t>206.70</t>
-  </si>
-  <si>
-    <t>1,338.95</t>
-  </si>
-  <si>
-    <t>711.50</t>
-  </si>
-  <si>
-    <t>241.00</t>
-  </si>
-  <si>
-    <t>7,477.00</t>
-  </si>
-  <si>
-    <t>372.00</t>
-  </si>
-  <si>
-    <t>2,779.00</t>
-  </si>
-  <si>
-    <t>4,203.00</t>
-  </si>
-  <si>
-    <t>2,129.00</t>
-  </si>
-  <si>
-    <t>217.30</t>
-  </si>
-  <si>
-    <t>208.80</t>
-  </si>
-  <si>
-    <t>1,341.80</t>
-  </si>
-  <si>
-    <t>715.75</t>
-  </si>
-  <si>
-    <t>243.80</t>
-  </si>
-  <si>
-    <t>7,500.00</t>
-  </si>
-  <si>
-    <t>375.50</t>
-  </si>
-  <si>
-    <t>2,793.00</t>
-  </si>
-  <si>
-    <t>4,275.00</t>
-  </si>
-  <si>
-    <t>210.30</t>
-  </si>
-  <si>
-    <t>201.55</t>
-  </si>
-  <si>
-    <t>1,315.70</t>
-  </si>
-  <si>
-    <t>694.00</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>7,392.05</t>
-  </si>
-  <si>
-    <t>365.60</t>
-  </si>
-  <si>
-    <t>2,775.00</t>
-  </si>
-  <si>
-    <t>4,172.00</t>
-  </si>
-  <si>
-    <t>2,108.80</t>
-  </si>
-  <si>
-    <t>217.00</t>
-  </si>
-  <si>
-    <t>205.85</t>
-  </si>
-  <si>
-    <t>1,335.00</t>
-  </si>
-  <si>
-    <t>709.95</t>
-  </si>
-  <si>
-    <t>239.70</t>
-  </si>
-  <si>
-    <t>7,471.15</t>
-  </si>
-  <si>
-    <t>375.15</t>
-  </si>
-  <si>
-    <t>2,794.95</t>
-  </si>
-  <si>
-    <t>4,196.60</t>
-  </si>
-  <si>
-    <t>2,124.95</t>
-  </si>
-  <si>
-    <t>22-Aug-2019</t>
-  </si>
-  <si>
-    <t>09-Aug-2019</t>
+    <t>24-Jul-2019</t>
+  </si>
+  <si>
+    <t>30-Oct-2019</t>
   </si>
   <si>
     <t>29-Jul-2019</t>
   </si>
   <si>
-    <t>08-Aug-2019</t>
-  </si>
-  <si>
-    <t>15-Jul-2019</t>
-  </si>
-  <si>
-    <t>14-Aug-2019</t>
-  </si>
-  <si>
-    <t>23-Apr-2019</t>
-  </si>
-  <si>
-    <t>10-Jul-2019</t>
-  </si>
-  <si>
-    <t>17-Oct-2019</t>
+    <t>26-Jul-2019</t>
   </si>
 </sst>
 </file>
@@ -881,7 +887,9 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -945,28 +953,28 @@
         <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
@@ -980,28 +988,28 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3">
@@ -1015,28 +1023,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4">
@@ -1047,31 +1055,31 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5">
@@ -1082,31 +1090,31 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6">
@@ -1117,31 +1125,31 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7">
@@ -1152,31 +1160,31 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
@@ -1187,31 +1195,31 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -1222,31 +1230,31 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -1257,31 +1265,31 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1299,322 +1307,322 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="J4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="J5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J6" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J8" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J9" t="s">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="I10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="J10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/CompanyNames.xlsx
+++ b/src/main/resources/CompanyNames.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="5925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="5925" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="GainersNSETest" r:id="rId5" sheetId="2"/>
-    <sheet name="LosersNSE" r:id="rId6" sheetId="3"/>
+    <sheet name="GainersNSETest" sheetId="2" r:id="rId2"/>
+    <sheet name="LosersNSE" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I17"/>
+  <oleSize ref="A1:O21"/>
 </workbook>
 </file>
 
@@ -632,7 +632,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -887,14 +886,14 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -935,14 +934,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -965,7 +964,7 @@
         <v>68</v>
       </c>
       <c r="H1" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="I1" t="s">
         <v>88</v>
@@ -977,7 +976,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1000,7 +999,7 @@
         <v>69</v>
       </c>
       <c r="H2" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s">
         <v>79</v>
@@ -1012,7 +1011,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1035,7 +1034,7 @@
         <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
         <v>89</v>
@@ -1047,7 +1046,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1070,7 +1069,7 @@
         <v>71</v>
       </c>
       <c r="H4" t="s">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s">
         <v>90</v>
@@ -1082,7 +1081,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1105,7 +1104,7 @@
         <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="I5" t="s">
         <v>91</v>
@@ -1117,7 +1116,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1140,7 +1139,7 @@
         <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="I6" t="s">
         <v>92</v>
@@ -1152,7 +1151,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1175,7 +1174,7 @@
         <v>74</v>
       </c>
       <c r="H7" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="I7" t="s">
         <v>93</v>
@@ -1187,7 +1186,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1210,7 +1209,7 @@
         <v>75</v>
       </c>
       <c r="H8" t="s">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="I8" t="s">
         <v>94</v>
@@ -1222,7 +1221,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1245,7 +1244,7 @@
         <v>76</v>
       </c>
       <c r="H9" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="I9" t="s">
         <v>95</v>
@@ -1257,7 +1256,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1280,7 +1279,7 @@
         <v>77</v>
       </c>
       <c r="H10" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s">
         <v>96</v>
@@ -1293,19 +1292,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>106</v>
       </c>
@@ -1327,6 +1328,9 @@
       <c r="G1" t="s">
         <v>165</v>
       </c>
+      <c r="H1" t="s">
+        <v>175</v>
+      </c>
       <c r="I1" t="s">
         <v>185</v>
       </c>
@@ -1337,7 +1341,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -1359,6 +1363,9 @@
       <c r="G2" t="s">
         <v>166</v>
       </c>
+      <c r="H2" t="s">
+        <v>176</v>
+      </c>
       <c r="I2" t="s">
         <v>186</v>
       </c>
@@ -1369,7 +1376,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -1391,6 +1398,9 @@
       <c r="G3" t="s">
         <v>167</v>
       </c>
+      <c r="H3" t="s">
+        <v>177</v>
+      </c>
       <c r="I3" t="s">
         <v>187</v>
       </c>
@@ -1401,7 +1411,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -1423,6 +1433,9 @@
       <c r="G4" t="s">
         <v>168</v>
       </c>
+      <c r="H4" t="s">
+        <v>178</v>
+      </c>
       <c r="I4" t="s">
         <v>188</v>
       </c>
@@ -1433,7 +1446,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -1455,6 +1468,9 @@
       <c r="G5" t="s">
         <v>169</v>
       </c>
+      <c r="H5" t="s">
+        <v>179</v>
+      </c>
       <c r="I5" t="s">
         <v>189</v>
       </c>
@@ -1465,7 +1481,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -1487,6 +1503,9 @@
       <c r="G6" t="s">
         <v>170</v>
       </c>
+      <c r="H6" t="s">
+        <v>180</v>
+      </c>
       <c r="I6" t="s">
         <v>190</v>
       </c>
@@ -1497,7 +1516,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -1519,6 +1538,9 @@
       <c r="G7" t="s">
         <v>171</v>
       </c>
+      <c r="H7" t="s">
+        <v>181</v>
+      </c>
       <c r="I7" t="s">
         <v>191</v>
       </c>
@@ -1529,7 +1551,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -1551,6 +1573,9 @@
       <c r="G8" t="s">
         <v>172</v>
       </c>
+      <c r="H8" t="s">
+        <v>182</v>
+      </c>
       <c r="I8" t="s">
         <v>192</v>
       </c>
@@ -1561,7 +1586,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1583,6 +1608,9 @@
       <c r="G9" t="s">
         <v>173</v>
       </c>
+      <c r="H9" t="s">
+        <v>183</v>
+      </c>
       <c r="I9" t="s">
         <v>193</v>
       </c>
@@ -1593,7 +1621,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -1615,6 +1643,9 @@
       <c r="G10" t="s">
         <v>174</v>
       </c>
+      <c r="H10" t="s">
+        <v>184</v>
+      </c>
       <c r="I10" t="s">
         <v>194</v>
       </c>
@@ -1626,6 +1657,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>